--- a/file/Generate.xlsx
+++ b/file/Generate.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -52,12 +52,6 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +75,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -104,21 +98,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,405 +470,8 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>9492ECE74BCD423B3229AD9DE5172B60</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>Start</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>Start_Branch</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>Start</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr"/>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>【对话开始】</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="B3" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>&gt;&gt; Next</t>
-        </is>
-      </c>
       <c r="G3" s="5" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>0B8098734DBA848A797FA69967C244AA</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>0_Branch</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
-        <is>
-          <t>1a</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
-        <is>
-          <t>&gt;&gt; Next</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>&gt;&gt; Next</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="9" t="inlineStr">
-        <is>
-          <t>&gt;&gt; Next</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>479C2F934D292E26799F5DB1C2DD90FA</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>1_Select</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>&gt; Selector [First]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>4154CDF9470C52F245A08991153F4C63</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>随机1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">&gt;&gt; </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>838CA3434721A0FE5A88C8863DE18053</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>## 垂直序列</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>随机2-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>NPC_B</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>随机2-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="inlineStr">
-        <is>
-          <t>随机2-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>Sequence</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>## 垂直序列结束</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>C8F8DAE7433ACC9E92B91D8EB36D03A7</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>对话4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>F295FF344C88A5532C720D80E43364AC</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>对话5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>46B3FE1C4A81654282EADBBADB77C48F</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>对话6</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>2692853747FB28208D0F50B1AA831A8D</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>End</t>
-        </is>
-      </c>
-      <c r="D20" s="8" t="inlineStr">
-        <is>
-          <t>End</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>NPC_A</t>
-        </is>
-      </c>
-      <c r="F20" s="9" t="inlineStr">
-        <is>
-          <t>【对话结束】</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
